--- a/data-raw/strickland.apple.uniformity.xlsx
+++ b/data-raw/strickland.apple.uniformity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E4F1D0-B952-491D-A7AA-B605D3238563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="10632" windowHeight="8988"/>
+    <workbookView xWindow="2780" yWindow="1740" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,9 +75,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -114,7 +115,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -220,7 +221,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -362,23 +363,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>235</v>
       </c>
@@ -413,7 +414,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>348</v>
       </c>
@@ -445,7 +446,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>322</v>
       </c>
@@ -477,7 +478,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>306</v>
       </c>
@@ -512,7 +513,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>345</v>
       </c>
@@ -547,7 +548,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>275</v>
       </c>
@@ -582,7 +583,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>296</v>
       </c>
@@ -617,7 +618,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>273</v>
       </c>
@@ -652,7 +653,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>315</v>
       </c>
@@ -687,7 +688,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>283</v>
       </c>
@@ -722,7 +723,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>322</v>
       </c>
@@ -754,7 +755,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>339</v>
       </c>
@@ -789,7 +790,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>340</v>
       </c>
@@ -818,7 +819,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>332</v>
       </c>
@@ -838,7 +839,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>414</v>
       </c>
@@ -870,7 +871,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>157</v>
       </c>
@@ -905,7 +906,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>447</v>
       </c>
@@ -940,7 +941,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>482</v>
       </c>
